--- a/Макеты/03/ВА_ИмпортExcel+Шаблон.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Шаблон.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ВА - ИмпортExcel</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>[Номенклатура.Наименование]</t>
+  </si>
+  <si>
+    <t>[Номенклатура.Артикул]</t>
   </si>
   <si>
     <t>[Статьи ДДС.Наименование]</t>
@@ -331,7 +334,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="N20"/>
+  <dimension ref="O20"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -345,12 +348,13 @@
     <col min="6" max="6" width="35.5" style="1" customWidth="true"/>
     <col min="7" max="7" width="35.5" style="1" customWidth="true"/>
     <col min="8" max="8" width="35.5" style="1" customWidth="true"/>
-    <col min="9" max="9" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="9" max="9" width="35.5" style="1" customWidth="true"/>
     <col min="10" max="10" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="11" max="11" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="12" max="12" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="13" max="13" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="14" max="14" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="7" customHeight="true" s="1" customFormat="true"/>
@@ -375,26 +379,29 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="e"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="5" t="e"/>
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="5" t="e"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="5" t="e"/>
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="5" t="e"/>
+      <c r="O4" s="5" t="e"/>
     </row>
     <row r="5" ht="11" customHeight="true" s="1" customFormat="true">
       <c r="A5" s="3" t="e"/>
@@ -405,22 +412,23 @@
       <c r="F5" s="3" t="e"/>
       <c r="G5" s="3" t="e"/>
       <c r="H5" s="3" t="e"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="e"/>
+      <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -435,12 +443,13 @@
       <c r="F6" s="8" t="e"/>
       <c r="G6" s="8" t="e"/>
       <c r="H6" s="8" t="e"/>
-      <c r="I6" s="9" t="e"/>
+      <c r="I6" s="8" t="e"/>
       <c r="J6" s="9" t="e"/>
       <c r="K6" s="9" t="e"/>
       <c r="L6" s="9" t="e"/>
       <c r="M6" s="9" t="e"/>
       <c r="N6" s="9" t="e"/>
+      <c r="O6" s="9" t="e"/>
     </row>
     <row r="7" ht="11" customHeight="true">
       <c r="A7" s="7" t="s">
@@ -453,12 +462,13 @@
       <c r="F7" s="8" t="e"/>
       <c r="G7" s="8" t="e"/>
       <c r="H7" s="8" t="e"/>
-      <c r="I7" s="9" t="e"/>
+      <c r="I7" s="8" t="e"/>
       <c r="J7" s="9" t="e"/>
       <c r="K7" s="9" t="e"/>
       <c r="L7" s="9" t="e"/>
       <c r="M7" s="9" t="e"/>
       <c r="N7" s="9" t="e"/>
+      <c r="O7" s="9" t="e"/>
     </row>
     <row r="8" ht="11" customHeight="true" outlineLevel="1">
       <c r="A8" s="10" t="s">
@@ -471,12 +481,13 @@
       <c r="F8" s="8" t="e"/>
       <c r="G8" s="8" t="e"/>
       <c r="H8" s="8" t="e"/>
-      <c r="I8" s="9" t="e"/>
+      <c r="I8" s="8" t="e"/>
       <c r="J8" s="9" t="e"/>
       <c r="K8" s="9" t="e"/>
       <c r="L8" s="9" t="e"/>
       <c r="M8" s="9" t="e"/>
       <c r="N8" s="9" t="e"/>
+      <c r="O8" s="9" t="e"/>
     </row>
     <row r="9" ht="11" customHeight="true">
       <c r="A9" s="7" t="s">
@@ -489,12 +500,13 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="8" t="e"/>
-      <c r="I9" s="9" t="e"/>
+      <c r="I9" s="8" t="e"/>
       <c r="J9" s="9" t="e"/>
       <c r="K9" s="9" t="e"/>
       <c r="L9" s="9" t="e"/>
       <c r="M9" s="9" t="e"/>
       <c r="N9" s="9" t="e"/>
+      <c r="O9" s="9" t="e"/>
     </row>
     <row r="10" ht="11" customHeight="true" outlineLevel="1">
       <c r="A10" s="10" t="s">
@@ -507,12 +519,13 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="8" t="e"/>
-      <c r="I10" s="9" t="e"/>
+      <c r="I10" s="8" t="e"/>
       <c r="J10" s="9" t="e"/>
       <c r="K10" s="9" t="e"/>
       <c r="L10" s="9" t="e"/>
       <c r="M10" s="9" t="e"/>
       <c r="N10" s="9" t="e"/>
+      <c r="O10" s="9" t="e"/>
     </row>
     <row r="11" ht="11" customHeight="true" outlineLevel="2">
       <c r="A11" s="11" t="s">
@@ -525,12 +538,13 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="8" t="e"/>
-      <c r="I11" s="9" t="e"/>
+      <c r="I11" s="8" t="e"/>
       <c r="J11" s="9" t="e"/>
       <c r="K11" s="9" t="e"/>
       <c r="L11" s="9" t="e"/>
       <c r="M11" s="9" t="e"/>
       <c r="N11" s="9" t="e"/>
+      <c r="O11" s="9" t="e"/>
     </row>
     <row r="12" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="3">
       <c r="A12" s="12" t="e"/>
@@ -543,12 +557,13 @@
       <c r="F12" s="14" t="e"/>
       <c r="G12" s="14" t="e"/>
       <c r="H12" s="14" t="e"/>
-      <c r="I12" s="9" t="e"/>
+      <c r="I12" s="14" t="e"/>
       <c r="J12" s="9" t="e"/>
       <c r="K12" s="9" t="e"/>
       <c r="L12" s="9" t="e"/>
       <c r="M12" s="9" t="e"/>
       <c r="N12" s="9" t="e"/>
+      <c r="O12" s="9" t="e"/>
     </row>
     <row r="13" ht="11" customHeight="true" outlineLevel="2">
       <c r="A13" s="11" t="s">
@@ -561,12 +576,13 @@
       <c r="F13" s="8" t="e"/>
       <c r="G13" s="8" t="e"/>
       <c r="H13" s="8" t="e"/>
-      <c r="I13" s="9" t="e"/>
+      <c r="I13" s="8" t="e"/>
       <c r="J13" s="9" t="e"/>
       <c r="K13" s="9" t="e"/>
       <c r="L13" s="9" t="e"/>
       <c r="M13" s="9" t="e"/>
       <c r="N13" s="9" t="e"/>
+      <c r="O13" s="9" t="e"/>
     </row>
     <row r="14" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="3">
       <c r="A14" s="12" t="e"/>
@@ -581,12 +597,13 @@
       <c r="F14" s="14" t="e"/>
       <c r="G14" s="14" t="e"/>
       <c r="H14" s="14" t="e"/>
-      <c r="I14" s="9" t="e"/>
+      <c r="I14" s="14" t="e"/>
       <c r="J14" s="9" t="e"/>
       <c r="K14" s="9" t="e"/>
       <c r="L14" s="9" t="e"/>
       <c r="M14" s="9" t="e"/>
       <c r="N14" s="9" t="e"/>
+      <c r="O14" s="9" t="e"/>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
       <c r="A15" s="10" t="s">
@@ -599,12 +616,13 @@
       <c r="F15" s="8" t="e"/>
       <c r="G15" s="8" t="e"/>
       <c r="H15" s="8" t="e"/>
-      <c r="I15" s="9" t="e"/>
+      <c r="I15" s="8" t="e"/>
       <c r="J15" s="9" t="e"/>
       <c r="K15" s="9" t="e"/>
       <c r="L15" s="9" t="e"/>
       <c r="M15" s="9" t="e"/>
       <c r="N15" s="9" t="e"/>
+      <c r="O15" s="9" t="e"/>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="2">
       <c r="A16" s="11" t="s">
@@ -617,12 +635,13 @@
       <c r="F16" s="8" t="e"/>
       <c r="G16" s="8" t="e"/>
       <c r="H16" s="8" t="e"/>
-      <c r="I16" s="9" t="e"/>
+      <c r="I16" s="8" t="e"/>
       <c r="J16" s="9" t="e"/>
       <c r="K16" s="9" t="e"/>
       <c r="L16" s="9" t="e"/>
       <c r="M16" s="9" t="e"/>
       <c r="N16" s="9" t="e"/>
+      <c r="O16" s="9" t="e"/>
     </row>
     <row r="17" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="3">
       <c r="A17" s="12" t="e"/>
@@ -644,17 +663,20 @@
       <c r="G17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="14" t="e"/>
-      <c r="I17" s="9" t="e"/>
+      <c r="H17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="14" t="e"/>
       <c r="J17" s="9" t="e"/>
       <c r="K17" s="9" t="e"/>
       <c r="L17" s="9" t="e"/>
       <c r="M17" s="9" t="e"/>
       <c r="N17" s="9" t="e"/>
+      <c r="O17" s="9" t="e"/>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="2">
       <c r="A18" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8" t="e"/>
       <c r="C18" s="8" t="e"/>
@@ -663,16 +685,17 @@
       <c r="F18" s="8" t="e"/>
       <c r="G18" s="8" t="e"/>
       <c r="H18" s="8" t="e"/>
-      <c r="I18" s="9" t="e"/>
+      <c r="I18" s="8" t="e"/>
       <c r="J18" s="9" t="e"/>
       <c r="K18" s="9" t="e"/>
       <c r="L18" s="9" t="e"/>
       <c r="M18" s="9" t="e"/>
       <c r="N18" s="9" t="e"/>
+      <c r="O18" s="9" t="e"/>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="3">
       <c r="A19" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8" t="e"/>
       <c r="C19" s="8" t="e"/>
@@ -681,12 +704,13 @@
       <c r="F19" s="8" t="e"/>
       <c r="G19" s="8" t="e"/>
       <c r="H19" s="8" t="e"/>
-      <c r="I19" s="9" t="e"/>
+      <c r="I19" s="8" t="e"/>
       <c r="J19" s="9" t="e"/>
       <c r="K19" s="9" t="e"/>
       <c r="L19" s="9" t="e"/>
       <c r="M19" s="9" t="e"/>
       <c r="N19" s="9" t="e"/>
+      <c r="O19" s="9" t="e"/>
     </row>
     <row r="20" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="4">
       <c r="A20" s="16" t="e"/>
@@ -709,17 +733,20 @@
         <v>27</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="9" t="e"/>
+        <v>28</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="J20" s="9" t="e"/>
       <c r="K20" s="9" t="e"/>
       <c r="L20" s="9" t="e"/>
       <c r="M20" s="9" t="e"/>
       <c r="N20" s="9" t="e"/>
+      <c r="O20" s="9" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -728,9 +755,10 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/Макеты/03/ВА_ИмпортExcel+Шаблон.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Шаблон.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
@@ -25,100 +25,100 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>ВА - ИмпортExcel</t>
-  </si>
-  <si>
-    <t>Контрагенты</t>
-  </si>
-  <si>
-    <t>Договоры контрагентов</t>
-  </si>
-  <si>
-    <t>Товарные категории</t>
-  </si>
-  <si>
-    <t>Номенклатура</t>
-  </si>
-  <si>
-    <t>Статьи ДДС</t>
-  </si>
-  <si>
-    <t>Статьи доходов и расходов</t>
-  </si>
-  <si>
-    <t>Валюты</t>
-  </si>
-  <si>
-    <t>Январь 2023 г.</t>
-  </si>
-  <si>
-    <t>Февраль 2023 г.</t>
-  </si>
-  <si>
-    <t>Март 2023 г.</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Строка_Синтетика_1</t>
-  </si>
-  <si>
-    <t>Группа_Синтетика</t>
-  </si>
-  <si>
-    <t>Строка_Синтетика_2</t>
-  </si>
-  <si>
-    <t>Группа_Аналитики_0</t>
-  </si>
-  <si>
-    <t>Группа_Аналитики_1_2</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_1</t>
-  </si>
-  <si>
-    <t>[Контрагенты.Наименование]</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_2</t>
-  </si>
-  <si>
-    <t>[Договоры контрагентов.Наименование]</t>
-  </si>
-  <si>
-    <t>Группа_Аналитики_6</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_6</t>
-  </si>
-  <si>
-    <t>[Товарные категории.Наименование]</t>
-  </si>
-  <si>
-    <t>[Номенклатура.Наименование]</t>
-  </si>
-  <si>
-    <t>[Номенклатура.Артикул]</t>
-  </si>
-  <si>
-    <t>[Статьи ДДС.Наименование]</t>
-  </si>
-  <si>
-    <t>[Статьи доходов и расходов.Наименование]</t>
-  </si>
-  <si>
-    <t>Группа_Валюта</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_6_Валюта</t>
-  </si>
-  <si>
-    <t>[Валюты.Наименование]</t>
+    <t>VA - ImportExcel</t>
+  </si>
+  <si>
+    <t>Counterparties</t>
+  </si>
+  <si>
+    <t>Counterparty contracts</t>
+  </si>
+  <si>
+    <t>Product categories</t>
+  </si>
+  <si>
+    <t>Product range</t>
+  </si>
+  <si>
+    <t>Cash flow items</t>
+  </si>
+  <si>
+    <t>Income and expense items</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>February 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Line_Synthetic_1</t>
+  </si>
+  <si>
+    <t>Group_Synthetic</t>
+  </si>
+  <si>
+    <t>Line_Synthetic_2</t>
+  </si>
+  <si>
+    <t>Group_Dimensions_0</t>
+  </si>
+  <si>
+    <t>Group_Dimensions_1_2</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_1</t>
+  </si>
+  <si>
+    <t>[Counterparties.Description]</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_2</t>
+  </si>
+  <si>
+    <t>[Counterparty contracts.Description]</t>
+  </si>
+  <si>
+    <t>Group_Dimensions_6</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_6</t>
+  </si>
+  <si>
+    <t>[Product categories.Description]</t>
+  </si>
+  <si>
+    <t>[Product range.Description]</t>
+  </si>
+  <si>
+    <t>[Product range.SKU]</t>
+  </si>
+  <si>
+    <t>[Cash flow items.Description]</t>
+  </si>
+  <si>
+    <t>[Income and expense items.Description]</t>
+  </si>
+  <si>
+    <t>Group_Currency</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_6_Currency</t>
+  </si>
+  <si>
+    <t>[Currencies.Description]</t>
   </si>
 </sst>
 </file>

--- a/Макеты/03/ВА_ИмпортExcel+Шаблон.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Шаблон.xlsx
@@ -23,39 +23,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ВА - ИмпортExcel</t>
   </si>
   <si>
-    <t>Контрагенты</t>
-  </si>
-  <si>
-    <t>Договоры контрагентов</t>
-  </si>
-  <si>
-    <t>Товарные категории</t>
-  </si>
-  <si>
-    <t>Номенклатура</t>
-  </si>
-  <si>
-    <t>Статьи ДДС</t>
-  </si>
-  <si>
-    <t>Статьи доходов и расходов</t>
-  </si>
-  <si>
-    <t>Валюты</t>
-  </si>
-  <si>
-    <t>Январь 2023 г.</t>
-  </si>
-  <si>
-    <t>Февраль 2023 г.</t>
-  </si>
-  <si>
-    <t>Март 2023 г.</t>
+    <t>Контрагенты_Наименование</t>
+  </si>
+  <si>
+    <t>Договоры контрагентов_Наименование</t>
+  </si>
+  <si>
+    <t>Товарные категории_Наименование</t>
+  </si>
+  <si>
+    <t>Номенклатура_Наименование</t>
+  </si>
+  <si>
+    <t>Номенклатура_Артикул</t>
+  </si>
+  <si>
+    <t>Статьи ДДС_Наименование</t>
+  </si>
+  <si>
+    <t>Статьи доходов и расходов_Наименование</t>
+  </si>
+  <si>
+    <t>Валюты_Наименование</t>
+  </si>
+  <si>
+    <t>Январь 2024 г.</t>
+  </si>
+  <si>
+    <t>Февраль 2024 г.</t>
+  </si>
+  <si>
+    <t>Март 2024 г.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Булево</t>
+  </si>
+  <si>
+    <t>Строка</t>
   </si>
   <si>
     <t>Количество</t>
@@ -65,6 +77,9 @@
   </si>
   <si>
     <t>Строка_Синтетика_1</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
   <si>
     <t>Группа_Синтетика</t>
@@ -262,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -290,6 +305,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2"/>
@@ -334,7 +355,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="O20"/>
+  <dimension ref="X21"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -355,6 +376,15 @@
     <col min="13" max="13" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="14" max="14" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="15" max="15" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="20" max="20" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="21" max="21" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="22" max="22" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="23" max="23" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="24" max="24" width="16.33203125" style="1" customWidth="true" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="7" customHeight="true" s="1" customFormat="true"/>
@@ -379,29 +409,38 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" s="5" t="e"/>
-      <c r="L4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="L4" s="5" t="e"/>
       <c r="M4" s="5" t="e"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="5" t="e"/>
+      <c r="O4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="5" t="e"/>
+      <c r="P4" s="5" t="e"/>
+      <c r="Q4" s="5" t="e"/>
+      <c r="R4" s="5" t="e"/>
+      <c r="S4" s="5" t="e"/>
+      <c r="T4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="5" t="e"/>
+      <c r="V4" s="5" t="e"/>
+      <c r="W4" s="5" t="e"/>
+      <c r="X4" s="5" t="e"/>
     </row>
     <row r="5" ht="11" customHeight="true" s="1" customFormat="true">
       <c r="A5" s="3" t="e"/>
@@ -414,27 +453,54 @@
       <c r="H5" s="3" t="e"/>
       <c r="I5" s="3" t="e"/>
       <c r="J5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="P5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="11" customHeight="true">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="e"/>
       <c r="C6" s="8" t="e"/>
@@ -445,15 +511,30 @@
       <c r="H6" s="8" t="e"/>
       <c r="I6" s="8" t="e"/>
       <c r="J6" s="9" t="e"/>
-      <c r="K6" s="9" t="e"/>
-      <c r="L6" s="9" t="e"/>
+      <c r="K6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="11" t="e"/>
       <c r="M6" s="9" t="e"/>
       <c r="N6" s="9" t="e"/>
       <c r="O6" s="9" t="e"/>
+      <c r="P6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="11" t="e"/>
+      <c r="R6" s="9" t="e"/>
+      <c r="S6" s="9" t="e"/>
+      <c r="T6" s="9" t="e"/>
+      <c r="U6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="11" t="e"/>
+      <c r="W6" s="9" t="e"/>
+      <c r="X6" s="9" t="e"/>
     </row>
     <row r="7" ht="11" customHeight="true">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="e"/>
       <c r="C7" s="8" t="e"/>
@@ -464,15 +545,30 @@
       <c r="H7" s="8" t="e"/>
       <c r="I7" s="8" t="e"/>
       <c r="J7" s="9" t="e"/>
-      <c r="K7" s="9" t="e"/>
-      <c r="L7" s="9" t="e"/>
+      <c r="K7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="11" t="e"/>
       <c r="M7" s="9" t="e"/>
       <c r="N7" s="9" t="e"/>
       <c r="O7" s="9" t="e"/>
+      <c r="P7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="11" t="e"/>
+      <c r="R7" s="9" t="e"/>
+      <c r="S7" s="9" t="e"/>
+      <c r="T7" s="9" t="e"/>
+      <c r="U7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="11" t="e"/>
+      <c r="W7" s="9" t="e"/>
+      <c r="X7" s="9" t="e"/>
     </row>
     <row r="8" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
+      <c r="A8" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="e"/>
       <c r="C8" s="8" t="e"/>
@@ -483,15 +579,30 @@
       <c r="H8" s="8" t="e"/>
       <c r="I8" s="8" t="e"/>
       <c r="J8" s="9" t="e"/>
-      <c r="K8" s="9" t="e"/>
-      <c r="L8" s="9" t="e"/>
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="11" t="e"/>
       <c r="M8" s="9" t="e"/>
       <c r="N8" s="9" t="e"/>
       <c r="O8" s="9" t="e"/>
+      <c r="P8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="11" t="e"/>
+      <c r="R8" s="9" t="e"/>
+      <c r="S8" s="9" t="e"/>
+      <c r="T8" s="9" t="e"/>
+      <c r="U8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="11" t="e"/>
+      <c r="W8" s="9" t="e"/>
+      <c r="X8" s="9" t="e"/>
     </row>
     <row r="9" ht="11" customHeight="true">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="e"/>
       <c r="C9" s="8" t="e"/>
@@ -502,15 +613,30 @@
       <c r="H9" s="8" t="e"/>
       <c r="I9" s="8" t="e"/>
       <c r="J9" s="9" t="e"/>
-      <c r="K9" s="9" t="e"/>
-      <c r="L9" s="9" t="e"/>
+      <c r="K9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="11" t="e"/>
       <c r="M9" s="9" t="e"/>
       <c r="N9" s="9" t="e"/>
       <c r="O9" s="9" t="e"/>
+      <c r="P9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="11" t="e"/>
+      <c r="R9" s="9" t="e"/>
+      <c r="S9" s="9" t="e"/>
+      <c r="T9" s="9" t="e"/>
+      <c r="U9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="11" t="e"/>
+      <c r="W9" s="9" t="e"/>
+      <c r="X9" s="9" t="e"/>
     </row>
     <row r="10" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A10" s="10" t="s">
-        <v>17</v>
+      <c r="A10" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="8" t="e"/>
       <c r="C10" s="8" t="e"/>
@@ -521,15 +647,30 @@
       <c r="H10" s="8" t="e"/>
       <c r="I10" s="8" t="e"/>
       <c r="J10" s="9" t="e"/>
-      <c r="K10" s="9" t="e"/>
-      <c r="L10" s="9" t="e"/>
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11" t="e"/>
       <c r="M10" s="9" t="e"/>
       <c r="N10" s="9" t="e"/>
       <c r="O10" s="9" t="e"/>
+      <c r="P10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="11" t="e"/>
+      <c r="R10" s="9" t="e"/>
+      <c r="S10" s="9" t="e"/>
+      <c r="T10" s="9" t="e"/>
+      <c r="U10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="11" t="e"/>
+      <c r="W10" s="9" t="e"/>
+      <c r="X10" s="9" t="e"/>
     </row>
     <row r="11" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
+      <c r="A11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="8" t="e"/>
       <c r="C11" s="8" t="e"/>
@@ -540,34 +681,64 @@
       <c r="H11" s="8" t="e"/>
       <c r="I11" s="8" t="e"/>
       <c r="J11" s="9" t="e"/>
-      <c r="K11" s="9" t="e"/>
-      <c r="L11" s="9" t="e"/>
+      <c r="K11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="e"/>
       <c r="M11" s="9" t="e"/>
       <c r="N11" s="9" t="e"/>
       <c r="O11" s="9" t="e"/>
+      <c r="P11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="11" t="e"/>
+      <c r="R11" s="9" t="e"/>
+      <c r="S11" s="9" t="e"/>
+      <c r="T11" s="9" t="e"/>
+      <c r="U11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="11" t="e"/>
+      <c r="W11" s="9" t="e"/>
+      <c r="X11" s="9" t="e"/>
     </row>
     <row r="12" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="3">
-      <c r="A12" s="12" t="e"/>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="14" t="e"/>
-      <c r="D12" s="14" t="e"/>
-      <c r="E12" s="14" t="e"/>
-      <c r="F12" s="14" t="e"/>
-      <c r="G12" s="14" t="e"/>
-      <c r="H12" s="14" t="e"/>
-      <c r="I12" s="14" t="e"/>
+      <c r="A12" s="14" t="e"/>
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="e"/>
+      <c r="D12" s="16" t="e"/>
+      <c r="E12" s="16" t="e"/>
+      <c r="F12" s="16" t="e"/>
+      <c r="G12" s="16" t="e"/>
+      <c r="H12" s="16" t="e"/>
+      <c r="I12" s="16" t="e"/>
       <c r="J12" s="9" t="e"/>
-      <c r="K12" s="9" t="e"/>
-      <c r="L12" s="9" t="e"/>
+      <c r="K12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="11" t="e"/>
       <c r="M12" s="9" t="e"/>
       <c r="N12" s="9" t="e"/>
       <c r="O12" s="9" t="e"/>
+      <c r="P12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="11" t="e"/>
+      <c r="R12" s="9" t="e"/>
+      <c r="S12" s="9" t="e"/>
+      <c r="T12" s="9" t="e"/>
+      <c r="U12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="11" t="e"/>
+      <c r="W12" s="9" t="e"/>
+      <c r="X12" s="9" t="e"/>
     </row>
     <row r="13" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A13" s="11" t="s">
-        <v>20</v>
+      <c r="A13" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="8" t="e"/>
       <c r="C13" s="8" t="e"/>
@@ -578,36 +749,66 @@
       <c r="H13" s="8" t="e"/>
       <c r="I13" s="8" t="e"/>
       <c r="J13" s="9" t="e"/>
-      <c r="K13" s="9" t="e"/>
-      <c r="L13" s="9" t="e"/>
+      <c r="K13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11" t="e"/>
       <c r="M13" s="9" t="e"/>
       <c r="N13" s="9" t="e"/>
       <c r="O13" s="9" t="e"/>
+      <c r="P13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="11" t="e"/>
+      <c r="R13" s="9" t="e"/>
+      <c r="S13" s="9" t="e"/>
+      <c r="T13" s="9" t="e"/>
+      <c r="U13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="11" t="e"/>
+      <c r="W13" s="9" t="e"/>
+      <c r="X13" s="9" t="e"/>
     </row>
     <row r="14" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="3">
-      <c r="A14" s="12" t="e"/>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="14" t="e"/>
-      <c r="E14" s="14" t="e"/>
-      <c r="F14" s="14" t="e"/>
-      <c r="G14" s="14" t="e"/>
-      <c r="H14" s="14" t="e"/>
-      <c r="I14" s="14" t="e"/>
+      <c r="A14" s="14" t="e"/>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="16" t="e"/>
+      <c r="E14" s="16" t="e"/>
+      <c r="F14" s="16" t="e"/>
+      <c r="G14" s="16" t="e"/>
+      <c r="H14" s="16" t="e"/>
+      <c r="I14" s="16" t="e"/>
       <c r="J14" s="9" t="e"/>
-      <c r="K14" s="9" t="e"/>
-      <c r="L14" s="9" t="e"/>
+      <c r="K14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="11" t="e"/>
       <c r="M14" s="9" t="e"/>
       <c r="N14" s="9" t="e"/>
       <c r="O14" s="9" t="e"/>
+      <c r="P14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="11" t="e"/>
+      <c r="R14" s="9" t="e"/>
+      <c r="S14" s="9" t="e"/>
+      <c r="T14" s="9" t="e"/>
+      <c r="U14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="11" t="e"/>
+      <c r="W14" s="9" t="e"/>
+      <c r="X14" s="9" t="e"/>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
+      <c r="A15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="8" t="e"/>
       <c r="C15" s="8" t="e"/>
@@ -618,15 +819,30 @@
       <c r="H15" s="8" t="e"/>
       <c r="I15" s="8" t="e"/>
       <c r="J15" s="9" t="e"/>
-      <c r="K15" s="9" t="e"/>
-      <c r="L15" s="9" t="e"/>
+      <c r="K15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="e"/>
       <c r="M15" s="9" t="e"/>
       <c r="N15" s="9" t="e"/>
       <c r="O15" s="9" t="e"/>
+      <c r="P15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="11" t="e"/>
+      <c r="R15" s="9" t="e"/>
+      <c r="S15" s="9" t="e"/>
+      <c r="T15" s="9" t="e"/>
+      <c r="U15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="11" t="e"/>
+      <c r="W15" s="9" t="e"/>
+      <c r="X15" s="9" t="e"/>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A16" s="11" t="s">
-        <v>23</v>
+      <c r="A16" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="e"/>
       <c r="C16" s="8" t="e"/>
@@ -637,46 +853,76 @@
       <c r="H16" s="8" t="e"/>
       <c r="I16" s="8" t="e"/>
       <c r="J16" s="9" t="e"/>
-      <c r="K16" s="9" t="e"/>
-      <c r="L16" s="9" t="e"/>
+      <c r="K16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11" t="e"/>
       <c r="M16" s="9" t="e"/>
       <c r="N16" s="9" t="e"/>
       <c r="O16" s="9" t="e"/>
+      <c r="P16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="11" t="e"/>
+      <c r="R16" s="9" t="e"/>
+      <c r="S16" s="9" t="e"/>
+      <c r="T16" s="9" t="e"/>
+      <c r="U16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="11" t="e"/>
+      <c r="W16" s="9" t="e"/>
+      <c r="X16" s="9" t="e"/>
     </row>
     <row r="17" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="3">
-      <c r="A17" s="12" t="e"/>
-      <c r="B17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="14" t="e"/>
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="14" t="e"/>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="16" t="e"/>
       <c r="J17" s="9" t="e"/>
-      <c r="K17" s="9" t="e"/>
-      <c r="L17" s="9" t="e"/>
+      <c r="K17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="e"/>
       <c r="M17" s="9" t="e"/>
       <c r="N17" s="9" t="e"/>
       <c r="O17" s="9" t="e"/>
+      <c r="P17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="11" t="e"/>
+      <c r="R17" s="9" t="e"/>
+      <c r="S17" s="9" t="e"/>
+      <c r="T17" s="9" t="e"/>
+      <c r="U17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" s="11" t="e"/>
+      <c r="W17" s="9" t="e"/>
+      <c r="X17" s="9" t="e"/>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A18" s="11" t="s">
-        <v>29</v>
+      <c r="A18" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="8" t="e"/>
       <c r="C18" s="8" t="e"/>
@@ -687,15 +933,30 @@
       <c r="H18" s="8" t="e"/>
       <c r="I18" s="8" t="e"/>
       <c r="J18" s="9" t="e"/>
-      <c r="K18" s="9" t="e"/>
-      <c r="L18" s="9" t="e"/>
+      <c r="K18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11" t="e"/>
       <c r="M18" s="9" t="e"/>
       <c r="N18" s="9" t="e"/>
       <c r="O18" s="9" t="e"/>
+      <c r="P18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="11" t="e"/>
+      <c r="R18" s="9" t="e"/>
+      <c r="S18" s="9" t="e"/>
+      <c r="T18" s="9" t="e"/>
+      <c r="U18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="11" t="e"/>
+      <c r="W18" s="9" t="e"/>
+      <c r="X18" s="9" t="e"/>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="3">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
+      <c r="A19" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B19" s="8" t="e"/>
       <c r="C19" s="8" t="e"/>
@@ -706,45 +967,76 @@
       <c r="H19" s="8" t="e"/>
       <c r="I19" s="8" t="e"/>
       <c r="J19" s="9" t="e"/>
-      <c r="K19" s="9" t="e"/>
-      <c r="L19" s="9" t="e"/>
+      <c r="K19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="e"/>
       <c r="M19" s="9" t="e"/>
       <c r="N19" s="9" t="e"/>
       <c r="O19" s="9" t="e"/>
+      <c r="P19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="11" t="e"/>
+      <c r="R19" s="9" t="e"/>
+      <c r="S19" s="9" t="e"/>
+      <c r="T19" s="9" t="e"/>
+      <c r="U19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="11" t="e"/>
+      <c r="W19" s="9" t="e"/>
+      <c r="X19" s="9" t="e"/>
     </row>
     <row r="20" ht="11" customHeight="true" s="1" customFormat="true" outlineLevel="4">
-      <c r="A20" s="16" t="e"/>
-      <c r="B20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="A20" s="18" t="e"/>
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="D20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="G20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="J20" s="9" t="e"/>
-      <c r="K20" s="9" t="e"/>
-      <c r="L20" s="9" t="e"/>
+      <c r="K20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="11" t="e"/>
       <c r="M20" s="9" t="e"/>
       <c r="N20" s="9" t="e"/>
       <c r="O20" s="9" t="e"/>
-    </row>
+      <c r="P20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="11" t="e"/>
+      <c r="R20" s="9" t="e"/>
+      <c r="S20" s="9" t="e"/>
+      <c r="T20" s="9" t="e"/>
+      <c r="U20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="11" t="e"/>
+      <c r="W20" s="9" t="e"/>
+      <c r="X20" s="9" t="e"/>
+    </row>
+    <row r="21" ht="11" customHeight="true"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A4:A5"/>
@@ -756,9 +1048,9 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:X4"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
